--- a/Big data Learning/temp.xlsx
+++ b/Big data Learning/temp.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11385"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11385" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
   <si>
     <t>Total Commitment</t>
   </si>
@@ -34,6 +35,21 @@
   </si>
   <si>
     <t>monthly Consumption</t>
+  </si>
+  <si>
+    <t>forcast total consumption</t>
+  </si>
+  <si>
+    <t>Production</t>
+  </si>
+  <si>
+    <t>non pro</t>
+  </si>
+  <si>
+    <t>forcast month p</t>
+  </si>
+  <si>
+    <t>forcast month np</t>
   </si>
 </sst>
 </file>
@@ -49,15 +65,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -80,14 +102,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -313,8 +353,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:axId val="680379600"/>
-        <c:axId val="680379208"/>
+        <c:axId val="607515080"/>
+        <c:axId val="607514688"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -577,11 +617,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="407541296"/>
-        <c:axId val="407542864"/>
+        <c:axId val="607513512"/>
+        <c:axId val="607514296"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="407541296"/>
+        <c:axId val="607513512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -624,14 +664,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="407542864"/>
+        <c:crossAx val="607514296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="407542864"/>
+        <c:axId val="607514296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -682,12 +722,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="407541296"/>
+        <c:crossAx val="607513512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="680379208"/>
+        <c:axId val="607514688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -724,12 +764,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="680379600"/>
+        <c:crossAx val="607515080"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="680379600"/>
+        <c:axId val="607515080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -739,7 +779,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="680379208"/>
+        <c:crossAx val="607514688"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
@@ -823,7 +864,1518 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Production/Non-production</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Production</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln w="127000">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$2:$A$19</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>41883</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41913</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41944</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41974</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42036</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42064</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42095</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42125</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42156</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42186</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42217</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42248</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42248</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42278</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42309</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42339</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42370</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$F$2:$F$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>22000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>non pro</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln w="127000">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$2:$A$19</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>41883</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41913</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41944</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41974</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42036</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42064</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42095</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42125</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42156</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42186</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42217</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42248</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42248</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42278</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42309</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42339</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42370</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$G$2:$G$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>forcast month p</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="127000">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$2:$A$19</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>41883</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41913</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41944</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41974</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42036</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42064</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42095</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42125</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42156</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42186</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42217</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42248</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42248</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42278</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42309</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42339</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42370</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$H$2:$H$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="14">
+                  <c:v>25544.794092404656</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>27000.697902369313</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>29071.375648729969</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>33033.411548448727</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>forcast month np</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="127000">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$2:$A$19</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>41883</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41913</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41944</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41974</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42036</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42064</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42095</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42125</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42156</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42186</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42217</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42248</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42248</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42278</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42309</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42339</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42370</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$I$2:$I$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="14">
+                  <c:v>6276.7058456369559</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1935.4771476523019</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4076.2044824406039</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3832.6354064145125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="100"/>
+        <c:axId val="607513120"/>
+        <c:axId val="607529976"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$E$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>monthly Consumption</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:gradFill rotWithShape="1">
+                    <a:gsLst>
+                      <a:gs pos="0">
+                        <a:schemeClr val="accent4">
+                          <a:satMod val="103000"/>
+                          <a:lumMod val="102000"/>
+                          <a:tint val="94000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                      <a:gs pos="50000">
+                        <a:schemeClr val="accent4">
+                          <a:satMod val="110000"/>
+                          <a:lumMod val="100000"/>
+                          <a:shade val="100000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                      <a:gs pos="100000">
+                        <a:schemeClr val="accent4">
+                          <a:lumMod val="99000"/>
+                          <a:satMod val="120000"/>
+                          <a:shade val="78000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                    </a:gsLst>
+                    <a:lin ang="5400000" scaled="0"/>
+                  </a:gradFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="000000">
+                        <a:alpha val="63000"/>
+                      </a:srgbClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$A$2:$A$19</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>m/d/yyyy</c:formatCode>
+                      <c:ptCount val="18"/>
+                      <c:pt idx="0">
+                        <c:v>41883</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>41913</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>41944</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>41974</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>42005</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>42036</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>42064</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>42095</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>42125</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>42156</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>42186</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>42217</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>42248</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>42248</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>42278</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>42309</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>42339</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>42370</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$E$2:$E$19</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="18"/>
+                      <c:pt idx="0">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>30000</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>20000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>15000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>30000</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>15000</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>20000</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>30000</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>33000</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>35000</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>23000</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>25000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total Commitment</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="flat">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$2:$A$19</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>41883</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41913</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41944</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41974</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42036</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42064</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42095</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42125</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42156</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42186</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42217</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42248</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42248</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42278</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42309</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42339</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42370</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>300000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total Consumption</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+              <a:headEnd type="none"/>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$2:$A$19</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>41883</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41913</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41944</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41974</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42036</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42064</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42095</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42125</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42156</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42186</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42217</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42248</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42248</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42278</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42309</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42339</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42370</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$2:$C$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>51000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>66000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>67000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>97000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>112000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>132000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>162000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>195000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>230000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>253000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>278000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>forcast total consumption</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="92D050"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$2:$A$19</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>41883</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41913</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41944</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41974</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42036</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42064</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42095</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42125</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42156</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42186</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42217</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42248</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42248</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42278</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42309</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42339</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42370</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$D$2:$D$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="13">
+                  <c:v>278000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>303544.79409240466</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>330545.49199477397</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>359616.86764350394</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>392650.27919195266</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="607513120"/>
+        <c:axId val="607529976"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="607513120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="607529976"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="607529976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="607513120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1366,6 +2918,519 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="328">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="95000"/>
+              <a:lumOff val="5000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="75000"/>
+              <a:lumOff val="25000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+      </a:gradFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1384,6 +3449,41 @@
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1666,8 +3766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="A1:D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1893,9 +3993,462 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I19"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>41883</v>
+      </c>
+      <c r="B2" s="1">
+        <v>50000</v>
+      </c>
+      <c r="C2" s="1">
+        <f>SUM($E$2:E2)</f>
+        <v>1000</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F2" s="6">
+        <v>100</v>
+      </c>
+      <c r="G2" s="6">
+        <f>E2-F2</f>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>41913</v>
+      </c>
+      <c r="B3" s="1">
+        <v>50000</v>
+      </c>
+      <c r="C3" s="1">
+        <f>SUM($E$2:E3)</f>
+        <v>31000</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1">
+        <v>30000</v>
+      </c>
+      <c r="F3" s="6">
+        <v>5000</v>
+      </c>
+      <c r="G3" s="6">
+        <f t="shared" ref="G3:G15" si="0">E3-F3</f>
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>41944</v>
+      </c>
+      <c r="B4" s="1">
+        <v>50000</v>
+      </c>
+      <c r="C4" s="1">
+        <f>SUM($E$2:E4)</f>
+        <v>51000</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1">
+        <v>20000</v>
+      </c>
+      <c r="F4" s="6">
+        <v>10000</v>
+      </c>
+      <c r="G4" s="6">
+        <f t="shared" si="0"/>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>41974</v>
+      </c>
+      <c r="B5" s="1">
+        <v>50000</v>
+      </c>
+      <c r="C5" s="1">
+        <f>SUM($E$2:E5)</f>
+        <v>66000</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1">
+        <v>15000</v>
+      </c>
+      <c r="F5" s="6">
+        <v>10000</v>
+      </c>
+      <c r="G5" s="6">
+        <f t="shared" si="0"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>42005</v>
+      </c>
+      <c r="B6" s="1">
+        <v>100000</v>
+      </c>
+      <c r="C6" s="1">
+        <f>SUM($E$2:E6)</f>
+        <v>67000</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F6" s="6">
+        <v>900</v>
+      </c>
+      <c r="G6" s="6">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>42036</v>
+      </c>
+      <c r="B7" s="1">
+        <v>100000</v>
+      </c>
+      <c r="C7" s="1">
+        <f>SUM($E$2:E7)</f>
+        <v>97000</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1">
+        <v>30000</v>
+      </c>
+      <c r="F7" s="6">
+        <v>10000</v>
+      </c>
+      <c r="G7" s="6">
+        <f t="shared" si="0"/>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>42064</v>
+      </c>
+      <c r="B8" s="1">
+        <v>100000</v>
+      </c>
+      <c r="C8" s="1">
+        <f>SUM($E$2:E8)</f>
+        <v>112000</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1">
+        <v>15000</v>
+      </c>
+      <c r="F8" s="6">
+        <v>10000</v>
+      </c>
+      <c r="G8" s="6">
+        <f t="shared" si="0"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>42095</v>
+      </c>
+      <c r="B9" s="1">
+        <v>100000</v>
+      </c>
+      <c r="C9" s="1">
+        <f>SUM($E$2:E9)</f>
+        <v>132000</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1">
+        <v>20000</v>
+      </c>
+      <c r="F9" s="6">
+        <v>15000</v>
+      </c>
+      <c r="G9" s="6">
+        <f t="shared" si="0"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>42125</v>
+      </c>
+      <c r="B10" s="1">
+        <v>100000</v>
+      </c>
+      <c r="C10" s="1">
+        <f>SUM($E$2:E10)</f>
+        <v>162000</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1">
+        <v>30000</v>
+      </c>
+      <c r="F10" s="6">
+        <v>18000</v>
+      </c>
+      <c r="G10" s="6">
+        <f t="shared" si="0"/>
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>42156</v>
+      </c>
+      <c r="B11" s="1">
+        <v>200000</v>
+      </c>
+      <c r="C11" s="1">
+        <f>SUM($E$2:E11)</f>
+        <v>195000</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1">
+        <v>33000</v>
+      </c>
+      <c r="F11" s="6">
+        <v>20000</v>
+      </c>
+      <c r="G11" s="6">
+        <f t="shared" si="0"/>
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>42186</v>
+      </c>
+      <c r="B12" s="1">
+        <v>200000</v>
+      </c>
+      <c r="C12" s="1">
+        <f>SUM($E$2:E12)</f>
+        <v>230000</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1">
+        <v>35000</v>
+      </c>
+      <c r="F12" s="6">
+        <v>22000</v>
+      </c>
+      <c r="G12" s="6">
+        <f t="shared" si="0"/>
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>42217</v>
+      </c>
+      <c r="B13" s="1">
+        <v>200000</v>
+      </c>
+      <c r="C13" s="1">
+        <f>SUM($E$2:E13)</f>
+        <v>253000</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1">
+        <v>23000</v>
+      </c>
+      <c r="F13" s="6">
+        <v>22000</v>
+      </c>
+      <c r="G13" s="6">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>42248</v>
+      </c>
+      <c r="B14" s="1">
+        <v>300000</v>
+      </c>
+      <c r="C14" s="1">
+        <f>SUM($E$2:E14)</f>
+        <v>278000</v>
+      </c>
+      <c r="E14" s="1">
+        <v>25000</v>
+      </c>
+      <c r="F14" s="6">
+        <v>22000</v>
+      </c>
+      <c r="G14" s="6">
+        <f t="shared" si="0"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>42248</v>
+      </c>
+      <c r="B15" s="1">
+        <v>300000</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="1">
+        <f>SUM($E$2:E15)</f>
+        <v>278000</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>42278</v>
+      </c>
+      <c r="B16" s="1">
+        <v>300000</v>
+      </c>
+      <c r="D16" s="1">
+        <f>SUM($E$2:E16)+H16</f>
+        <v>303544.79409240466</v>
+      </c>
+      <c r="H16" s="4">
+        <f>FORECAST(A16,F2:F14,A2:A14)</f>
+        <v>25544.794092404656</v>
+      </c>
+      <c r="I16" s="3">
+        <f>FORECAST(A16,G2:G14,A2:A14)</f>
+        <v>6276.7058456369559</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>42309</v>
+      </c>
+      <c r="B17" s="1">
+        <v>300000</v>
+      </c>
+      <c r="D17" s="1">
+        <f>D16+H17</f>
+        <v>330545.49199477397</v>
+      </c>
+      <c r="H17" s="4">
+        <f t="shared" ref="H17:H19" si="1">FORECAST(A17,F3:F15,A3:A15)</f>
+        <v>27000.697902369313</v>
+      </c>
+      <c r="I17" s="3">
+        <f t="shared" ref="I17:I19" si="2">FORECAST(A17,G3:G15,A3:A15)</f>
+        <v>1935.4771476523019</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>42339</v>
+      </c>
+      <c r="B18" s="1">
+        <v>300000</v>
+      </c>
+      <c r="D18" s="1">
+        <f>D17+H18</f>
+        <v>359616.86764350394</v>
+      </c>
+      <c r="H18" s="4">
+        <f t="shared" si="1"/>
+        <v>29071.375648729969</v>
+      </c>
+      <c r="I18" s="3">
+        <f t="shared" si="2"/>
+        <v>4076.2044824406039</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>42370</v>
+      </c>
+      <c r="B19" s="1">
+        <v>300000</v>
+      </c>
+      <c r="D19" s="1">
+        <f>D18+H19</f>
+        <v>392650.27919195266</v>
+      </c>
+      <c r="H19" s="4">
+        <f t="shared" si="1"/>
+        <v>33033.411548448727</v>
+      </c>
+      <c r="I19" s="3">
+        <f t="shared" si="2"/>
+        <v>3832.6354064145125</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
